--- a/public/批量信息导入模板.xlsx
+++ b/public/批量信息导入模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>录用时间</t>
   </si>
@@ -50,7 +50,7 @@
     <t>录用分值</t>
   </si>
   <si>
-    <t>2024.5.12</t>
+    <t>2024-12-23 00:00:00</t>
   </si>
   <si>
     <t>2024年台州市学生信息素养提升实践活动智能机器人项目比赛在温岭举行</t>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>温岭教育</t>
-  </si>
-  <si>
-    <t>2024.11.12</t>
   </si>
   <si>
     <t>一大批师生作品在省阅读推广活动中获佳绩！</t>
@@ -81,13 +78,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -558,138 +563,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1076,12 +1083,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.5666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.0666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.2416666666667" customWidth="1"/>
     <col min="3" max="3" width="10.4083333333333" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
@@ -1090,7 +1097,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1113,7 +1120,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -1136,14 +1143,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
